--- a/general.xlsx
+++ b/general.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ83"/>
+  <dimension ref="A1:BZ84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>5:40</t>
+          <t>23:59</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>23:59</t>
+          <t>5:40</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>RN MUJE CHAFLOQUE</t>
+          <t>DANNAE MUJE CHAFLOQUE</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>RN OSCCORIMA CARDENAS</t>
+          <t>LIAM OSCCORIMA CARDENAS</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>RN PEREZ MONTALVO</t>
+          <t>JATZIRI PEREZ MONTALVO</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -11377,7 +11377,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>RN MEZA LOPEZ</t>
+          <t>JOAO MEZA LOPEZ</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -12217,12 +12217,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>45376901</t>
+          <t>70802251</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FLORA CHIRCCA LLACCHUAS</t>
+          <t>REBECA GARCIA ERAZO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -12237,19 +12237,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>8</t>
@@ -12258,58 +12254,62 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>ANDAHUAYLAS</t>
+          <t>C.S URIPA</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>5:50</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>4:0</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>7:50</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>EUTOCICO</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>CESARIA EMERGENCIA</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>SESAREADA ANTERIOR SUFRIMIENTO FETAL</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>307633</t>
+          <t>307626</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>RN MILLONES CHIRCCA</t>
+          <t>RN BERNA GARCIA</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>93822705</t>
+          <t>93822428</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>APEGO</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>04:16</t>
+          <t>2 :HOR</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
@@ -12318,40 +12318,40 @@
         </is>
       </c>
       <c r="Y53" t="n">
-        <v>3015</v>
+        <v>2770</v>
       </c>
       <c r="Z53" t="n">
-        <v>48.3</v>
+        <v>46.7</v>
       </c>
       <c r="AA53" t="n">
         <v>34</v>
       </c>
       <c r="AB53" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC53" t="n">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE53" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF53" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG53" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI53" t="n">
         <v>8</v>
       </c>
-      <c r="AH53" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>-1</v>
-      </c>
       <c r="AJ53" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="AK53" t="inlineStr">
         <is>
@@ -12375,22 +12375,22 @@
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>en minutos</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="AQ53" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="AR53" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LEV</t>
         </is>
       </c>
       <c r="AS53" t="inlineStr">
@@ -12400,22 +12400,22 @@
       </c>
       <c r="AT53" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>ASFIXIA LEVE</t>
         </is>
       </c>
       <c r="AV53" t="inlineStr">
         <is>
-          <t>O+</t>
+          <t>A+</t>
         </is>
       </c>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>9:0</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-05-05</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr">
@@ -12430,34 +12430,34 @@
       </c>
       <c r="BA53" t="inlineStr">
         <is>
-          <t>YONY OLAYA ALARCON</t>
+          <t>JANICE  CASTILLO JUAREZ</t>
         </is>
       </c>
       <c r="BB53" t="inlineStr">
         <is>
-          <t>EMILIA</t>
+          <t>LUISA</t>
         </is>
       </c>
       <c r="BC53" t="inlineStr">
         <is>
-          <t>JUAN JOSE  RAMOS LOAYZA</t>
+          <t>CLAUDINE ASDRIT TREJO MANTILLA</t>
         </is>
       </c>
       <c r="BD53" t="inlineStr">
         <is>
-          <t>Lourdes Carmen Yauris Huayta</t>
+          <t>Liliana Salazar Marcatoma</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>77388591</t>
+          <t>45376901</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>YULY RODAS CRISOLES</t>
+          <t>FLORA CHIRCCA LLACCHUAS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -12503,12 +12503,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0:33</t>
+          <t>4:0</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>9:22</t>
+          <t>7:50</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -12519,17 +12519,17 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>307631</t>
+          <t>307633</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>RN CERON RODAS</t>
+          <t>RN MILLONES CHIRCCA</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>93822635</t>
+          <t>93822705</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -12544,7 +12544,7 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>12:58</t>
+          <t>04:16</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
@@ -12553,25 +12553,25 @@
         </is>
       </c>
       <c r="Y54" t="n">
-        <v>3395</v>
+        <v>3015</v>
       </c>
       <c r="Z54" t="n">
-        <v>50.5</v>
+        <v>48.3</v>
       </c>
       <c r="AA54" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB54" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC54" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE54" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF54" t="n">
         <v>38</v>
@@ -12608,7 +12608,11 @@
           <t>CLARO</t>
         </is>
       </c>
-      <c r="AO54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>en minutos</t>
+        </is>
+      </c>
       <c r="AP54" t="inlineStr">
         <is>
           <t>NO</t>
@@ -12641,7 +12645,7 @@
       </c>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>4:16</t>
+          <t>9:0</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
@@ -12661,7 +12665,7 @@
       </c>
       <c r="BA54" t="inlineStr">
         <is>
-          <t>SARA SARMIENTO MONTES</t>
+          <t>YONY OLAYA ALARCON</t>
         </is>
       </c>
       <c r="BB54" t="inlineStr">
@@ -12676,19 +12680,19 @@
       </c>
       <c r="BD54" t="inlineStr">
         <is>
-          <t>EDUARD ARNOLDD  MOSCOSO ROJAS</t>
+          <t>Lourdes Carmen Yauris Huayta</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>70802251</t>
+          <t>77388591</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>REBECA GARCIA ERAZO</t>
+          <t>YULY RODAS CRISOLES</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -12703,15 +12707,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
           <t>8</t>
@@ -12720,175 +12728,167 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>C.S URIPA</t>
+          <t>ANDAHUAYLAS</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>5:50</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>0:33</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>9:22</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>CESARIA EMERGENCIA</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>SESAREADA ANTERIOR SUFRIMIENTO FETAL</t>
-        </is>
-      </c>
+          <t>EUTOCICO</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>307626</t>
+          <t>307631</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>RN BERNA GARCIA</t>
+          <t>BENJAMIN CERON RODAS</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>93822428</t>
+          <t>93822635</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>12:58</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Y55" t="n">
+        <v>3395</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
+          <t>AEG</t>
+        </is>
+      </c>
+      <c r="AN55" t="inlineStr">
+        <is>
+          <t>CLARO</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="AQ55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="AR55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="AS55" t="inlineStr">
+        <is>
+          <t>ALOJAMIENTO CONJUNTO</t>
+        </is>
+      </c>
+      <c r="AT55" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="AV55" t="inlineStr">
+        <is>
+          <t>O+</t>
+        </is>
+      </c>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>4:16</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>APEGO</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>2 :HOR</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Y55" t="n">
-        <v>2770</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>37</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="AL55" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="AM55" t="inlineStr">
-        <is>
-          <t>AEG</t>
-        </is>
-      </c>
-      <c r="AN55" t="inlineStr">
-        <is>
-          <t>CLARO</t>
-        </is>
-      </c>
-      <c r="AO55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP55" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="AQ55" t="inlineStr">
-        <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="AR55" t="inlineStr">
-        <is>
-          <t>LEV</t>
-        </is>
-      </c>
-      <c r="AS55" t="inlineStr">
-        <is>
-          <t>ALOJAMIENTO CONJUNTO</t>
-        </is>
-      </c>
-      <c r="AT55" t="inlineStr">
-        <is>
-          <t>ASFIXIA LEVE</t>
-        </is>
-      </c>
-      <c r="AV55" t="inlineStr">
-        <is>
-          <t>A+</t>
-        </is>
-      </c>
-      <c r="AW55" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="AX55" t="inlineStr">
-        <is>
-          <t>2024-05-05</t>
-        </is>
-      </c>
-      <c r="AY55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AZ55" t="inlineStr">
         <is>
           <t> </t>
@@ -12896,22 +12896,22 @@
       </c>
       <c r="BA55" t="inlineStr">
         <is>
-          <t>JANICE  CASTILLO JUAREZ</t>
+          <t>SARA SARMIENTO MONTES</t>
         </is>
       </c>
       <c r="BB55" t="inlineStr">
         <is>
-          <t>LUISA</t>
+          <t>EMILIA</t>
         </is>
       </c>
       <c r="BC55" t="inlineStr">
         <is>
-          <t>CLAUDINE ASDRIT TREJO MANTILLA</t>
+          <t>JUAN JOSE  RAMOS LOAYZA</t>
         </is>
       </c>
       <c r="BD55" t="inlineStr">
         <is>
-          <t>Liliana Salazar Marcatoma</t>
+          <t>EDUARD ARNOLDD  MOSCOSO ROJAS</t>
         </is>
       </c>
     </row>
@@ -14774,12 +14774,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>45344651</t>
+          <t>47604268</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JUDICA ALMANZA TAIPICURI</t>
+          <t>ROSAURA GUIZADO PECEROS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -14805,23 +14805,23 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>INACHUASI</t>
+          <t>C. S SAN JERONIMO</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>19:1</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -14831,38 +14831,42 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>EUTOCICO</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>CESARIA EMERGENCIA</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>CESAREADA ANTERIOR</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>307672</t>
+          <t>307671</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>RN VILLA ALMANZA</t>
+          <t>RN VARGAS GUIZADO</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>93827490</t>
+          <t>93827436</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>60</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>25:</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -14871,40 +14875,40 @@
         </is>
       </c>
       <c r="Y64" t="n">
-        <v>3340</v>
+        <v>2845</v>
       </c>
       <c r="Z64" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="AA64" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AB64" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC64" t="n">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="AD64" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF64" t="n">
         <v>38</v>
       </c>
       <c r="AG64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI64" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AJ64" t="n">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="AK64" t="inlineStr">
         <is>
@@ -14923,18 +14927,22 @@
       </c>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>CLARO</t>
-        </is>
-      </c>
-      <c r="AO64" t="inlineStr"/>
+          <t>claro</t>
+        </is>
+      </c>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>en minutos</t>
+        </is>
+      </c>
       <c r="AP64" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="AQ64" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="AR64" t="inlineStr">
@@ -14944,12 +14952,12 @@
       </c>
       <c r="AS64" t="inlineStr">
         <is>
-          <t>ALOJAMIENTO CONJUNTO</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>SIRCULAR CIMPLE</t>
         </is>
       </c>
       <c r="AV64" t="inlineStr">
@@ -14959,7 +14967,7 @@
       </c>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>20:0</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
@@ -14979,7 +14987,7 @@
       </c>
       <c r="BA64" t="inlineStr">
         <is>
-          <t>YONY OLAYA ALARCON</t>
+          <t>SARA SARMIENTO MONTES</t>
         </is>
       </c>
       <c r="BB64" t="inlineStr">
@@ -14990,19 +14998,19 @@
       <c r="BC64" t="inlineStr"/>
       <c r="BD64" t="inlineStr">
         <is>
-          <t>IBETH TAIPE HUAMAN</t>
+          <t>Ida Rosa Guevara Laureano</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>47604268</t>
+          <t>45344651</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ROSAURA GUIZADO PECEROS</t>
+          <t>JUDICA ALMANZA TAIPICURI</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -15028,23 +15036,23 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>C. S SAN JERONIMO</t>
+          <t>INACHUASI</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>19:1</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>16:24</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -15054,42 +15062,38 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>CESARIA EMERGENCIA</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>CESAREADA ANTERIOR</t>
-        </is>
-      </c>
+          <t>EUTOCICO</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>307671</t>
+          <t>307672</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>RN VARGAS GUIZADO</t>
+          <t>RN VILLA ALMANZA</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>93827436</t>
+          <t>93827490</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>45</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>25:</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
@@ -15098,40 +15102,40 @@
         </is>
       </c>
       <c r="Y65" t="n">
-        <v>2845</v>
+        <v>3340</v>
       </c>
       <c r="Z65" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="AA65" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB65" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AC65" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE65" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF65" t="n">
         <v>38</v>
       </c>
       <c r="AG65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH65" t="n">
         <v>8</v>
       </c>
-      <c r="AH65" t="n">
+      <c r="AI65" t="n">
         <v>9</v>
       </c>
-      <c r="AI65" t="n">
-        <v>-1</v>
-      </c>
       <c r="AJ65" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="AK65" t="inlineStr">
         <is>
@@ -15150,22 +15154,18 @@
       </c>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>claro</t>
-        </is>
-      </c>
-      <c r="AO65" t="inlineStr">
-        <is>
-          <t>en minutos</t>
-        </is>
-      </c>
+          <t>CLARO</t>
+        </is>
+      </c>
+      <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="AR65" t="inlineStr">
@@ -15175,12 +15175,12 @@
       </c>
       <c r="AS65" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>ALOJAMIENTO CONJUNTO</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr">
         <is>
-          <t>SIRCULAR CIMPLE</t>
+          <t>null</t>
         </is>
       </c>
       <c r="AV65" t="inlineStr">
@@ -15190,7 +15190,7 @@
       </c>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:0</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="BA65" t="inlineStr">
         <is>
-          <t>SARA SARMIENTO MONTES</t>
+          <t>YONY OLAYA ALARCON</t>
         </is>
       </c>
       <c r="BB65" t="inlineStr">
@@ -15221,7 +15221,7 @@
       <c r="BC65" t="inlineStr"/>
       <c r="BD65" t="inlineStr">
         <is>
-          <t>Ida Rosa Guevara Laureano</t>
+          <t>IBETH TAIPE HUAMAN</t>
         </is>
       </c>
     </row>
@@ -19380,6 +19380,241 @@
       <c r="BD83" t="inlineStr">
         <is>
           <t>KATTYA GRISSEL SERNA LOAYZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>46049647</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>GLENISS SOTOMAYOR ALFARO</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>O+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>INTEGRA</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>CS TALAVERA</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>11:35</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>CESARIA EMERGENCIA</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>PRESENTACION PODALICA</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>307739</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>RN TAPASCO SOTOMAYOR</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>93832911</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>00:10</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Y84" t="n">
+        <v>3300</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>31</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="AL84" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="AM84" t="inlineStr">
+        <is>
+          <t>AEG</t>
+        </is>
+      </c>
+      <c r="AN84" t="inlineStr">
+        <is>
+          <t>CLARO</t>
+        </is>
+      </c>
+      <c r="AO84" t="inlineStr">
+        <is>
+          <t>en minutos</t>
+        </is>
+      </c>
+      <c r="AP84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="AQ84" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="AR84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="AS84" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="AT84" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="AV84" t="inlineStr">
+        <is>
+          <t>O+</t>
+        </is>
+      </c>
+      <c r="AW84" t="inlineStr">
+        <is>
+          <t>23:59</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>2024-05-14</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ84" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="BA84" t="inlineStr">
+        <is>
+          <t>SARA SARMIENTO MONTES</t>
+        </is>
+      </c>
+      <c r="BB84" t="inlineStr">
+        <is>
+          <t>EMILIA</t>
+        </is>
+      </c>
+      <c r="BC84" t="inlineStr">
+        <is>
+          <t>Jesus Ccoto Ramos</t>
+        </is>
+      </c>
+      <c r="BD84" t="inlineStr">
+        <is>
+          <t>Adler Wylliam Malpartida Tello</t>
         </is>
       </c>
     </row>
